--- a/02_MasterWifoMannheim/99_Backup/Course153.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course153.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D369A3B92311591D60305F9BFE7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00B8B12D-C5D2-4FD0-9A5B-B085F2F87457}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 502 Inventory Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Inventory management is a core element of any company’s supply chain management activities. To set appropriate inventory levels, companies must trade off inventory costs and benefits. While inventory costs tend to be readily visible, identifying and measuring inventory benefits is more demanding, in general. This course structures the analysis by distinguishing common inventory drivers. For each driver, it first highlights the underlying economic trade-offs and then introduces and analyses quantitative models that allow to optimize them. Core topics include demand forecasting, lot sizing, safety stocks, and seasonal inventory. The course also addresses the interplay between the sales and operations functions of a firm.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further information on registration: -</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Moritz Fleischmann</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 502 Inventory Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Inventory management is a core element of any company’s supply chain management activities. To set appropriate inventory levels, companies must trade off inventory costs and benefits. While inventory costs tend to be readily visible, identifying and measuring inventory benefits is more demanding, in general. This course structures the analysis by distinguishing common inventory drivers. For each driver, it first highlights the underlying economic trade-offs and then introduces and analyses quantitative models that allow to optimize them. Core topics include demand forecasting, lot sizing, safety stocks, and seasonal inventory. The course also addresses the interplay between the sales and operations functions of a firm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Inventory management is a core element of any company’s supply chain management activities. To set appropriate inventory levels, companies must trade off inventory costs and benefits. While inventory costs tend to be readily visible, identifying and measuring inventory benefits is more demanding, in general. This course structures the analysis by distinguishing common inventory drivers. For each driver, it first highlights the underlying economic trade-offs and then introduces and analyses quantitative models that allow to optimize them. Core topics include demand forecasting, lot sizing, safety stocks, and seasonal inventory. The course also addresses the interplay between the sales and operations functions of a firm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further information on registration: -</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (90 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Moritz Fleischmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
